--- a/data/base_app_final.xlsx
+++ b/data/base_app_final.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A5D7B7D05C556AD5BFF38316DADAD059684E98D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17E90F5-9CF3-43C1-9DE9-7CC35B157BD5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_A5D7B7D05C556AD5BFF38316DADAD059684E98D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3740EA-FA2D-48F4-9F79-199C4FEED408}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$AG$501</definedName>
+  </definedNames>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7647,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE502" sqref="AE502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -58009,10 +58012,10 @@
         <v>0.61512475703707603</v>
       </c>
       <c r="AE500">
-        <v>-15.6502159285772</v>
+        <v>-73.100139999999996</v>
       </c>
       <c r="AF500">
-        <v>-87.595347204297198</v>
+        <v>-13.89626</v>
       </c>
       <c r="AG500" t="s">
         <v>1373</v>
@@ -58120,14 +58123,26 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AG501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055D2EA710B900544942DABD1518EE1C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9022dd9dfd20b22feefd31ed56f045a4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3df24986-baba-4489-9369-103674e24d1a" xmlns:ns3="7419ce56-a6dd-42e8-bb99-fb034f3b9bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c7944c9d9e9408acdf5df57b623588" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7419ce56-a6dd-42e8-bb99-fb034f3b9bf0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3df24986-baba-4489-9369-103674e24d1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055D2EA710B900544942DABD1518EE1C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3efe543022a7e07c9448c6cfb5600a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3df24986-baba-4489-9369-103674e24d1a" xmlns:ns3="7419ce56-a6dd-42e8-bb99-fb034f3b9bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f12d2e55871e9480bb7fb6151a98808" ns2:_="" ns3:_="">
     <xsd:import namespace="3df24986-baba-4489-9369-103674e24d1a"/>
     <xsd:import namespace="7419ce56-a6dd-42e8-bb99-fb034f3b9bf0"/>
     <xsd:element name="properties">
@@ -58174,7 +58189,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e6348db9-b7cf-4dd4-a241-88601c1018ae" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e6348db9-b7cf-4dd4-a241-88601c1018ae" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -58228,7 +58243,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -58247,7 +58262,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -58264,8 +58279,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -58354,17 +58369,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7419ce56-a6dd-42e8-bb99-fb034f3b9bf0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3df24986-baba-4489-9369-103674e24d1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -58375,11 +58379,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE7D2D3-4E48-41FB-A3E8-EA564394C11B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9F8573-817D-4455-80F0-BA46D60C0ED9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9F8573-817D-4455-80F0-BA46D60C0ED9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A354A68-A2AD-4615-9401-F2DE6D39704C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
